--- a/Figure S3/iScience_input_data/gas_exchange.xlsx
+++ b/Figure S3/iScience_input_data/gas_exchange.xlsx
@@ -1,106 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayuhutamisyarif/Documents/GitHub/COPD_immune_subtype/Figure S3/iScience_input_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752443F4-3A27-024E-B389-0C1FA8174275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Lung.Matchcode</t>
+    <t>Unique_Sample_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique_Sample_ID</t>
+    <t>COPD_subclass</t>
   </si>
   <si>
-    <t xml:space="preserve">COPD_subclass</t>
+    <t>Airspace.enlargement</t>
   </si>
   <si>
-    <t xml:space="preserve">Airspace.enlargement</t>
+    <t>pO2_mmHg</t>
   </si>
   <si>
-    <t xml:space="preserve">pO2_mmHg</t>
+    <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">W147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W145</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +80,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,14 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,350 +392,286 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>9412</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.889972899729</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>62.889972899729003</v>
+      </c>
+      <c r="D2">
         <v>52</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>4442</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>141.377049180328</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>141.37704918032799</v>
+      </c>
+      <c r="D3">
         <v>68.7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>9905</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105.653333333333</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>105.65333333333299</v>
+      </c>
+      <c r="D4">
         <v>60</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1562</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.0529832935561</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>95.052983293556096</v>
+      </c>
+      <c r="D5">
         <v>51.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4647</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>77.043598615917</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>77.043598615917006</v>
+      </c>
+      <c r="D6">
         <v>63</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>8593</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>74.2</v>
       </c>
-      <c r="E7" t="n">
-        <v>76.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="D7">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>9041</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>53.1377777777778</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>53.137777777777799</v>
+      </c>
+      <c r="D8">
         <v>81</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8141</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>127.215094339623</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>127.21509433962299</v>
+      </c>
+      <c r="D9">
+        <v>64.209999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>5852</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>74.4596187175043</v>
-      </c>
-      <c r="E10" t="n">
-        <v>78.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>74.459618717504299</v>
+      </c>
+      <c r="D10">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1604</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>29.3408450704225</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>499</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62.3363914373089</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>62.336391437308897</v>
+      </c>
+      <c r="D12">
         <v>74</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>6540</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89.4931637519873</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>89.493163751987296</v>
+      </c>
+      <c r="D13">
         <v>66</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>420</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51.819943019943</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>51.819943019942997</v>
+      </c>
+      <c r="D14">
         <v>72</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>516</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>112.231524547804</v>
       </c>
-      <c r="E15" t="n">
+      <c r="D15">
         <v>54</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>5860</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>64.8057007125891</v>
       </c>
-      <c r="E16" t="n">
+      <c r="D16">
         <v>64.7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>9091</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="n">
-        <v>85.0674486803519</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>85.067448680351902</v>
+      </c>
+      <c r="D17">
         <v>73.5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>8783</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66.3634854771784</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>66.363485477178401</v>
+      </c>
+      <c r="D18">
         <v>72.3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>4516</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>114.105060240964</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>114.10506024096399</v>
+      </c>
+      <c r="D19">
         <v>64</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>9487</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
         <v>69.3805309734513</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20">
         <v>58.8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>6353</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>123.128205128205</v>
       </c>
-      <c r="E21" t="n">
+      <c r="D21">
         <v>57.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>